--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,19 +132,25 @@
     <t>1</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Bard</t>
   </si>
   <si>
-    <t>BostonScientific</t>
+    <t>8</t>
   </si>
   <si>
     <t>Boston Scientific</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Cousin</t>
   </si>
   <si>
-    <t>johnson&amp;johnson</t>
+    <t>10</t>
   </si>
   <si>
     <t>Johnson &amp; Johnson</t>
@@ -484,10 +490,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +501,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -509,13 +515,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +529,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SlyngeDUGA.xlsx
+++ b/fhir/CodeSystem-SlyngeDUGA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,25 +132,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Bard</t>
   </si>
   <si>
-    <t>8</t>
+    <t>BostonScientific</t>
   </si>
   <si>
     <t>Boston Scientific</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Cousin</t>
   </si>
   <si>
-    <t>10</t>
+    <t>johnson&amp;johnson</t>
   </si>
   <si>
     <t>Johnson &amp; Johnson</t>
@@ -490,10 +484,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +495,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -515,13 +509,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -529,13 +523,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
